--- a/Daily Sales & Allocation/Daily Sales Decem'2020/Daily Sales 19.12.20.xlsx
+++ b/Daily Sales & Allocation/Daily Sales Decem'2020/Daily Sales 19.12.20.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="75" yWindow="0" windowWidth="20520" windowHeight="7875"/>
+    <workbookView xWindow="75" yWindow="0" windowWidth="20520" windowHeight="7875" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Daily Sales" sheetId="35" r:id="rId1"/>
@@ -292,9 +292,6 @@
     <t>16.12.2020</t>
   </si>
   <si>
-    <t>Date :17-12-2020</t>
-  </si>
-  <si>
     <t>Date: 17-12-2020</t>
   </si>
   <si>
@@ -317,6 +314,9 @@
   </si>
   <si>
     <t>19.12.2020</t>
+  </si>
+  <si>
+    <t>Date :20-12-2020</t>
   </si>
 </sst>
 </file>
@@ -1613,30 +1613,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="14" fillId="17" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1674,6 +1650,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2546,7 +2546,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BD65539"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AC37" sqref="AC37"/>
     </sheetView>
   </sheetViews>
@@ -2598,162 +2598,162 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:56" ht="30.75">
-      <c r="A1" s="172" t="s">
+      <c r="A1" s="164" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="172"/>
-      <c r="C1" s="172"/>
-      <c r="D1" s="172"/>
-      <c r="E1" s="172"/>
-      <c r="F1" s="172"/>
-      <c r="G1" s="172"/>
-      <c r="H1" s="172"/>
-      <c r="I1" s="172"/>
-      <c r="J1" s="172"/>
-      <c r="K1" s="172"/>
-      <c r="L1" s="172"/>
-      <c r="M1" s="172"/>
-      <c r="N1" s="172"/>
-      <c r="O1" s="172"/>
-      <c r="P1" s="172"/>
-      <c r="Q1" s="172"/>
-      <c r="R1" s="172"/>
-      <c r="S1" s="172"/>
-      <c r="T1" s="172"/>
-      <c r="U1" s="172"/>
-      <c r="V1" s="172"/>
-      <c r="W1" s="172"/>
-      <c r="X1" s="172"/>
-      <c r="Y1" s="172"/>
-      <c r="Z1" s="172"/>
-      <c r="AA1" s="172"/>
-      <c r="AB1" s="172"/>
-      <c r="AC1" s="172"/>
-      <c r="AD1" s="172"/>
-      <c r="AE1" s="172"/>
-      <c r="AF1" s="172"/>
-      <c r="AG1" s="172"/>
-      <c r="AH1" s="172"/>
-      <c r="AI1" s="172"/>
-      <c r="AJ1" s="172"/>
-      <c r="AK1" s="172"/>
-      <c r="AL1" s="172"/>
-      <c r="AM1" s="172"/>
-      <c r="AN1" s="172"/>
-      <c r="AO1" s="172"/>
-      <c r="AP1" s="172"/>
-      <c r="AQ1" s="172"/>
-      <c r="AR1" s="172"/>
-      <c r="AS1" s="172"/>
-      <c r="AT1" s="172"/>
+      <c r="B1" s="164"/>
+      <c r="C1" s="164"/>
+      <c r="D1" s="164"/>
+      <c r="E1" s="164"/>
+      <c r="F1" s="164"/>
+      <c r="G1" s="164"/>
+      <c r="H1" s="164"/>
+      <c r="I1" s="164"/>
+      <c r="J1" s="164"/>
+      <c r="K1" s="164"/>
+      <c r="L1" s="164"/>
+      <c r="M1" s="164"/>
+      <c r="N1" s="164"/>
+      <c r="O1" s="164"/>
+      <c r="P1" s="164"/>
+      <c r="Q1" s="164"/>
+      <c r="R1" s="164"/>
+      <c r="S1" s="164"/>
+      <c r="T1" s="164"/>
+      <c r="U1" s="164"/>
+      <c r="V1" s="164"/>
+      <c r="W1" s="164"/>
+      <c r="X1" s="164"/>
+      <c r="Y1" s="164"/>
+      <c r="Z1" s="164"/>
+      <c r="AA1" s="164"/>
+      <c r="AB1" s="164"/>
+      <c r="AC1" s="164"/>
+      <c r="AD1" s="164"/>
+      <c r="AE1" s="164"/>
+      <c r="AF1" s="164"/>
+      <c r="AG1" s="164"/>
+      <c r="AH1" s="164"/>
+      <c r="AI1" s="164"/>
+      <c r="AJ1" s="164"/>
+      <c r="AK1" s="164"/>
+      <c r="AL1" s="164"/>
+      <c r="AM1" s="164"/>
+      <c r="AN1" s="164"/>
+      <c r="AO1" s="164"/>
+      <c r="AP1" s="164"/>
+      <c r="AQ1" s="164"/>
+      <c r="AR1" s="164"/>
+      <c r="AS1" s="164"/>
+      <c r="AT1" s="164"/>
     </row>
     <row r="2" spans="1:56" ht="21" thickBot="1">
-      <c r="A2" s="173" t="s">
+      <c r="A2" s="165" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="173"/>
-      <c r="C2" s="173"/>
-      <c r="D2" s="173"/>
-      <c r="E2" s="173"/>
-      <c r="F2" s="173"/>
-      <c r="G2" s="173"/>
-      <c r="H2" s="173"/>
-      <c r="I2" s="173"/>
-      <c r="J2" s="173"/>
-      <c r="K2" s="173"/>
-      <c r="L2" s="173"/>
-      <c r="M2" s="173"/>
-      <c r="N2" s="173"/>
-      <c r="O2" s="173"/>
-      <c r="P2" s="173"/>
-      <c r="Q2" s="173"/>
-      <c r="R2" s="173"/>
-      <c r="S2" s="173"/>
-      <c r="T2" s="173"/>
-      <c r="U2" s="173"/>
-      <c r="V2" s="173"/>
-      <c r="W2" s="173"/>
-      <c r="X2" s="173"/>
-      <c r="Y2" s="173"/>
-      <c r="Z2" s="173"/>
-      <c r="AA2" s="173"/>
-      <c r="AB2" s="173"/>
-      <c r="AC2" s="173"/>
-      <c r="AD2" s="173"/>
-      <c r="AE2" s="173"/>
-      <c r="AF2" s="173"/>
-      <c r="AG2" s="173"/>
-      <c r="AH2" s="173"/>
-      <c r="AI2" s="173"/>
-      <c r="AJ2" s="173"/>
-      <c r="AK2" s="173"/>
-      <c r="AL2" s="173"/>
-      <c r="AM2" s="173"/>
-      <c r="AN2" s="173"/>
-      <c r="AO2" s="173"/>
-      <c r="AP2" s="173"/>
-      <c r="AQ2" s="173"/>
-      <c r="AR2" s="173"/>
-      <c r="AS2" s="173"/>
-      <c r="AT2" s="173"/>
+      <c r="B2" s="165"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="165"/>
+      <c r="H2" s="165"/>
+      <c r="I2" s="165"/>
+      <c r="J2" s="165"/>
+      <c r="K2" s="165"/>
+      <c r="L2" s="165"/>
+      <c r="M2" s="165"/>
+      <c r="N2" s="165"/>
+      <c r="O2" s="165"/>
+      <c r="P2" s="165"/>
+      <c r="Q2" s="165"/>
+      <c r="R2" s="165"/>
+      <c r="S2" s="165"/>
+      <c r="T2" s="165"/>
+      <c r="U2" s="165"/>
+      <c r="V2" s="165"/>
+      <c r="W2" s="165"/>
+      <c r="X2" s="165"/>
+      <c r="Y2" s="165"/>
+      <c r="Z2" s="165"/>
+      <c r="AA2" s="165"/>
+      <c r="AB2" s="165"/>
+      <c r="AC2" s="165"/>
+      <c r="AD2" s="165"/>
+      <c r="AE2" s="165"/>
+      <c r="AF2" s="165"/>
+      <c r="AG2" s="165"/>
+      <c r="AH2" s="165"/>
+      <c r="AI2" s="165"/>
+      <c r="AJ2" s="165"/>
+      <c r="AK2" s="165"/>
+      <c r="AL2" s="165"/>
+      <c r="AM2" s="165"/>
+      <c r="AN2" s="165"/>
+      <c r="AO2" s="165"/>
+      <c r="AP2" s="165"/>
+      <c r="AQ2" s="165"/>
+      <c r="AR2" s="165"/>
+      <c r="AS2" s="165"/>
+      <c r="AT2" s="165"/>
     </row>
     <row r="3" spans="1:56" ht="18.75">
-      <c r="A3" s="174" t="s">
-        <v>98</v>
-      </c>
-      <c r="B3" s="175"/>
-      <c r="C3" s="176"/>
-      <c r="D3" s="176"/>
-      <c r="E3" s="176"/>
-      <c r="F3" s="176"/>
-      <c r="G3" s="176"/>
-      <c r="H3" s="176"/>
-      <c r="I3" s="176"/>
-      <c r="J3" s="176"/>
-      <c r="K3" s="176"/>
-      <c r="L3" s="176"/>
-      <c r="M3" s="176"/>
-      <c r="N3" s="176"/>
-      <c r="O3" s="176"/>
-      <c r="P3" s="176"/>
-      <c r="Q3" s="176"/>
-      <c r="R3" s="176"/>
-      <c r="S3" s="176"/>
-      <c r="T3" s="176"/>
-      <c r="U3" s="176"/>
-      <c r="V3" s="176"/>
-      <c r="W3" s="176"/>
-      <c r="X3" s="176"/>
-      <c r="Y3" s="176"/>
-      <c r="Z3" s="176"/>
-      <c r="AA3" s="176"/>
-      <c r="AB3" s="176"/>
-      <c r="AC3" s="176"/>
-      <c r="AD3" s="176"/>
-      <c r="AE3" s="176"/>
-      <c r="AF3" s="176"/>
-      <c r="AG3" s="176"/>
-      <c r="AH3" s="176"/>
-      <c r="AI3" s="176"/>
-      <c r="AJ3" s="176"/>
-      <c r="AK3" s="176"/>
-      <c r="AL3" s="176"/>
-      <c r="AM3" s="176"/>
-      <c r="AN3" s="176"/>
-      <c r="AO3" s="176"/>
-      <c r="AP3" s="176"/>
-      <c r="AQ3" s="176"/>
-      <c r="AR3" s="176"/>
-      <c r="AS3" s="176"/>
-      <c r="AT3" s="176"/>
+      <c r="A3" s="166" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="167"/>
+      <c r="C3" s="168"/>
+      <c r="D3" s="168"/>
+      <c r="E3" s="168"/>
+      <c r="F3" s="168"/>
+      <c r="G3" s="168"/>
+      <c r="H3" s="168"/>
+      <c r="I3" s="168"/>
+      <c r="J3" s="168"/>
+      <c r="K3" s="168"/>
+      <c r="L3" s="168"/>
+      <c r="M3" s="168"/>
+      <c r="N3" s="168"/>
+      <c r="O3" s="168"/>
+      <c r="P3" s="168"/>
+      <c r="Q3" s="168"/>
+      <c r="R3" s="168"/>
+      <c r="S3" s="168"/>
+      <c r="T3" s="168"/>
+      <c r="U3" s="168"/>
+      <c r="V3" s="168"/>
+      <c r="W3" s="168"/>
+      <c r="X3" s="168"/>
+      <c r="Y3" s="168"/>
+      <c r="Z3" s="168"/>
+      <c r="AA3" s="168"/>
+      <c r="AB3" s="168"/>
+      <c r="AC3" s="168"/>
+      <c r="AD3" s="168"/>
+      <c r="AE3" s="168"/>
+      <c r="AF3" s="168"/>
+      <c r="AG3" s="168"/>
+      <c r="AH3" s="168"/>
+      <c r="AI3" s="168"/>
+      <c r="AJ3" s="168"/>
+      <c r="AK3" s="168"/>
+      <c r="AL3" s="168"/>
+      <c r="AM3" s="168"/>
+      <c r="AN3" s="168"/>
+      <c r="AO3" s="168"/>
+      <c r="AP3" s="168"/>
+      <c r="AQ3" s="168"/>
+      <c r="AR3" s="168"/>
+      <c r="AS3" s="168"/>
+      <c r="AT3" s="168"/>
     </row>
     <row r="4" spans="1:56" ht="15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="169" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="178"/>
-      <c r="D4" s="178"/>
+      <c r="B4" s="169"/>
+      <c r="C4" s="170"/>
+      <c r="D4" s="170"/>
       <c r="E4" s="89">
         <v>0</v>
       </c>
@@ -2778,10 +2778,10 @@
       <c r="L4" s="151">
         <v>300</v>
       </c>
-      <c r="M4" s="177">
+      <c r="M4" s="169">
         <v>10</v>
       </c>
-      <c r="N4" s="177"/>
+      <c r="N4" s="169"/>
       <c r="O4" s="151">
         <v>1610</v>
       </c>
@@ -2804,24 +2804,24 @@
       <c r="Z4" s="89"/>
       <c r="AA4" s="89"/>
       <c r="AB4" s="89"/>
-      <c r="AC4" s="178"/>
-      <c r="AD4" s="178"/>
-      <c r="AE4" s="178"/>
-      <c r="AF4" s="178"/>
-      <c r="AG4" s="178"/>
-      <c r="AH4" s="178"/>
-      <c r="AI4" s="178"/>
-      <c r="AJ4" s="178"/>
-      <c r="AK4" s="178"/>
-      <c r="AL4" s="178"/>
-      <c r="AM4" s="178"/>
-      <c r="AN4" s="178"/>
-      <c r="AO4" s="178"/>
-      <c r="AP4" s="178"/>
-      <c r="AQ4" s="178"/>
-      <c r="AR4" s="178"/>
-      <c r="AS4" s="178"/>
-      <c r="AT4" s="178"/>
+      <c r="AC4" s="170"/>
+      <c r="AD4" s="170"/>
+      <c r="AE4" s="170"/>
+      <c r="AF4" s="170"/>
+      <c r="AG4" s="170"/>
+      <c r="AH4" s="170"/>
+      <c r="AI4" s="170"/>
+      <c r="AJ4" s="170"/>
+      <c r="AK4" s="170"/>
+      <c r="AL4" s="170"/>
+      <c r="AM4" s="170"/>
+      <c r="AN4" s="170"/>
+      <c r="AO4" s="170"/>
+      <c r="AP4" s="170"/>
+      <c r="AQ4" s="170"/>
+      <c r="AR4" s="170"/>
+      <c r="AS4" s="170"/>
+      <c r="AT4" s="170"/>
       <c r="AV4" s="6"/>
       <c r="AW4" s="6"/>
       <c r="AX4" s="6"/>
@@ -2833,12 +2833,12 @@
       <c r="BD4" s="6"/>
     </row>
     <row r="5" spans="1:56" ht="15">
-      <c r="A5" s="177" t="s">
+      <c r="A5" s="169" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="177"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
+      <c r="B5" s="169"/>
+      <c r="C5" s="170"/>
+      <c r="D5" s="170"/>
       <c r="E5" s="89"/>
       <c r="F5" s="89"/>
       <c r="G5" s="89"/>
@@ -2871,24 +2871,24 @@
       <c r="Z5" s="89"/>
       <c r="AA5" s="89"/>
       <c r="AB5" s="89"/>
-      <c r="AC5" s="178"/>
-      <c r="AD5" s="178"/>
-      <c r="AE5" s="178"/>
-      <c r="AF5" s="178"/>
-      <c r="AG5" s="178"/>
-      <c r="AH5" s="178"/>
-      <c r="AI5" s="178"/>
-      <c r="AJ5" s="178"/>
-      <c r="AK5" s="178"/>
-      <c r="AL5" s="178"/>
-      <c r="AM5" s="178"/>
-      <c r="AN5" s="178"/>
-      <c r="AO5" s="178"/>
-      <c r="AP5" s="178"/>
-      <c r="AQ5" s="178"/>
-      <c r="AR5" s="178"/>
-      <c r="AS5" s="178"/>
-      <c r="AT5" s="178"/>
+      <c r="AC5" s="170"/>
+      <c r="AD5" s="170"/>
+      <c r="AE5" s="170"/>
+      <c r="AF5" s="170"/>
+      <c r="AG5" s="170"/>
+      <c r="AH5" s="170"/>
+      <c r="AI5" s="170"/>
+      <c r="AJ5" s="170"/>
+      <c r="AK5" s="170"/>
+      <c r="AL5" s="170"/>
+      <c r="AM5" s="170"/>
+      <c r="AN5" s="170"/>
+      <c r="AO5" s="170"/>
+      <c r="AP5" s="170"/>
+      <c r="AQ5" s="170"/>
+      <c r="AR5" s="170"/>
+      <c r="AS5" s="170"/>
+      <c r="AT5" s="170"/>
       <c r="AV5" s="6"/>
       <c r="AW5" s="6"/>
       <c r="AX5" s="6"/>
@@ -5232,11 +5232,11 @@
       <c r="BD28" s="6"/>
     </row>
     <row r="29" spans="1:56" s="1" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A29" s="179" t="s">
+      <c r="A29" s="171" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="180"/>
-      <c r="C29" s="180"/>
+      <c r="B29" s="172"/>
+      <c r="C29" s="172"/>
       <c r="D29" s="111">
         <f t="shared" ref="D29:AT29" si="13">SUM(D7:D28)</f>
         <v>183583</v>
@@ -5421,10 +5421,10 @@
       <c r="BD29" s="122"/>
     </row>
     <row r="30" spans="1:56" ht="15.75" thickBot="1">
-      <c r="A30" s="181" t="s">
+      <c r="A30" s="173" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="182"/>
+      <c r="B30" s="174"/>
       <c r="C30" s="32"/>
       <c r="D30" s="33"/>
       <c r="E30" s="34">
@@ -5582,44 +5582,44 @@
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="5"/>
-      <c r="D32" s="170" t="s">
+      <c r="D32" s="162" t="s">
         <v>87</v>
       </c>
-      <c r="E32" s="170"/>
-      <c r="F32" s="170"/>
-      <c r="G32" s="170"/>
-      <c r="H32" s="170"/>
-      <c r="I32" s="170"/>
-      <c r="J32" s="170"/>
-      <c r="K32" s="170"/>
-      <c r="L32" s="170"/>
-      <c r="M32" s="170"/>
+      <c r="E32" s="162"/>
+      <c r="F32" s="162"/>
+      <c r="G32" s="162"/>
+      <c r="H32" s="162"/>
+      <c r="I32" s="162"/>
+      <c r="J32" s="162"/>
+      <c r="K32" s="162"/>
+      <c r="L32" s="162"/>
+      <c r="M32" s="162"/>
       <c r="O32" s="23"/>
       <c r="P32" s="11"/>
       <c r="Q32" s="6"/>
       <c r="R32" s="6"/>
       <c r="S32" s="6"/>
-      <c r="AR32" s="171" t="s">
+      <c r="AR32" s="163" t="s">
         <v>80</v>
       </c>
-      <c r="AS32" s="171"/>
-      <c r="AT32" s="171"/>
+      <c r="AS32" s="163"/>
+      <c r="AT32" s="163"/>
       <c r="AU32" s="14"/>
     </row>
     <row r="33" spans="1:47" ht="15.75">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="5"/>
-      <c r="D33" s="166" t="s">
+      <c r="D33" s="179" t="s">
         <v>81</v>
       </c>
-      <c r="E33" s="166"/>
-      <c r="F33" s="166"/>
-      <c r="G33" s="166"/>
-      <c r="H33" s="166"/>
-      <c r="I33" s="166"/>
-      <c r="J33" s="166"/>
-      <c r="K33" s="166"/>
+      <c r="E33" s="179"/>
+      <c r="F33" s="179"/>
+      <c r="G33" s="179"/>
+      <c r="H33" s="179"/>
+      <c r="I33" s="179"/>
+      <c r="J33" s="179"/>
+      <c r="K33" s="179"/>
       <c r="L33" s="150"/>
       <c r="M33" s="150">
         <v>186188</v>
@@ -5634,7 +5634,7 @@
         <v>54</v>
       </c>
       <c r="AT33" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AU33" s="14"/>
     </row>
@@ -5642,16 +5642,16 @@
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="5"/>
-      <c r="D34" s="167" t="s">
+      <c r="D34" s="180" t="s">
         <v>72</v>
       </c>
-      <c r="E34" s="167"/>
-      <c r="F34" s="167"/>
-      <c r="G34" s="167"/>
-      <c r="H34" s="167"/>
-      <c r="I34" s="167"/>
-      <c r="J34" s="167"/>
-      <c r="K34" s="167"/>
+      <c r="E34" s="180"/>
+      <c r="F34" s="180"/>
+      <c r="G34" s="180"/>
+      <c r="H34" s="180"/>
+      <c r="I34" s="180"/>
+      <c r="J34" s="180"/>
+      <c r="K34" s="180"/>
       <c r="L34" s="45"/>
       <c r="M34" s="129">
         <v>203509</v>
@@ -5676,14 +5676,14 @@
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="5"/>
-      <c r="D35" s="168"/>
-      <c r="E35" s="168"/>
-      <c r="F35" s="168"/>
-      <c r="G35" s="168"/>
-      <c r="H35" s="168"/>
-      <c r="I35" s="168"/>
-      <c r="J35" s="168"/>
-      <c r="K35" s="168"/>
+      <c r="D35" s="181"/>
+      <c r="E35" s="181"/>
+      <c r="F35" s="181"/>
+      <c r="G35" s="181"/>
+      <c r="H35" s="181"/>
+      <c r="I35" s="181"/>
+      <c r="J35" s="181"/>
+      <c r="K35" s="181"/>
       <c r="L35" s="149"/>
       <c r="M35" s="130">
         <f>M33+M34</f>
@@ -5700,23 +5700,23 @@
         <v>45</v>
       </c>
       <c r="AT35" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:47" ht="15.75">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="5"/>
-      <c r="D36" s="169" t="s">
+      <c r="D36" s="182" t="s">
         <v>75</v>
       </c>
-      <c r="E36" s="169"/>
-      <c r="F36" s="169"/>
-      <c r="G36" s="169"/>
-      <c r="H36" s="169"/>
-      <c r="I36" s="169"/>
-      <c r="J36" s="169"/>
-      <c r="K36" s="169"/>
+      <c r="E36" s="182"/>
+      <c r="F36" s="182"/>
+      <c r="G36" s="182"/>
+      <c r="H36" s="182"/>
+      <c r="I36" s="182"/>
+      <c r="J36" s="182"/>
+      <c r="K36" s="182"/>
       <c r="L36" s="149"/>
       <c r="M36" s="129">
         <v>53177.5</v>
@@ -5735,23 +5735,23 @@
         <v>45</v>
       </c>
       <c r="AT36" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:47" ht="15.75">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="5"/>
-      <c r="D37" s="166" t="s">
+      <c r="D37" s="179" t="s">
         <v>82</v>
       </c>
-      <c r="E37" s="166"/>
-      <c r="F37" s="166"/>
-      <c r="G37" s="166"/>
-      <c r="H37" s="166"/>
-      <c r="I37" s="166"/>
-      <c r="J37" s="166"/>
-      <c r="K37" s="166"/>
+      <c r="E37" s="179"/>
+      <c r="F37" s="179"/>
+      <c r="G37" s="179"/>
+      <c r="H37" s="179"/>
+      <c r="I37" s="179"/>
+      <c r="J37" s="179"/>
+      <c r="K37" s="179"/>
       <c r="L37" s="133"/>
       <c r="M37" s="131">
         <f>M35-M36</f>
@@ -5765,23 +5765,23 @@
         <v>70</v>
       </c>
       <c r="AT37" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:47" ht="15.75">
       <c r="A38" s="13"/>
       <c r="B38" s="13"/>
       <c r="C38" s="5"/>
-      <c r="D38" s="168" t="s">
+      <c r="D38" s="181" t="s">
         <v>84</v>
       </c>
-      <c r="E38" s="168"/>
-      <c r="F38" s="168"/>
-      <c r="G38" s="168"/>
-      <c r="H38" s="168"/>
-      <c r="I38" s="168"/>
-      <c r="J38" s="168"/>
-      <c r="K38" s="168"/>
+      <c r="E38" s="181"/>
+      <c r="F38" s="181"/>
+      <c r="G38" s="181"/>
+      <c r="H38" s="181"/>
+      <c r="I38" s="181"/>
+      <c r="J38" s="181"/>
+      <c r="K38" s="181"/>
       <c r="L38" s="149"/>
       <c r="M38" s="149">
         <v>335000</v>
@@ -5793,23 +5793,23 @@
         <v>70</v>
       </c>
       <c r="AT38" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="39" spans="1:47" ht="15.75">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="5"/>
-      <c r="D39" s="162" t="s">
+      <c r="D39" s="175" t="s">
         <v>85</v>
       </c>
-      <c r="E39" s="163"/>
-      <c r="F39" s="163"/>
-      <c r="G39" s="163"/>
-      <c r="H39" s="163"/>
-      <c r="I39" s="163"/>
-      <c r="J39" s="163"/>
-      <c r="K39" s="164"/>
+      <c r="E39" s="176"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
+      <c r="H39" s="176"/>
+      <c r="I39" s="176"/>
+      <c r="J39" s="176"/>
+      <c r="K39" s="177"/>
       <c r="L39" s="46"/>
       <c r="M39" s="130">
         <f>M37-M38</f>
@@ -5830,16 +5830,16 @@
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="5"/>
-      <c r="D40" s="165" t="s">
+      <c r="D40" s="178" t="s">
         <v>83</v>
       </c>
-      <c r="E40" s="165"/>
-      <c r="F40" s="165"/>
-      <c r="G40" s="165"/>
-      <c r="H40" s="165"/>
-      <c r="I40" s="165"/>
-      <c r="J40" s="165"/>
-      <c r="K40" s="165"/>
+      <c r="E40" s="178"/>
+      <c r="F40" s="178"/>
+      <c r="G40" s="178"/>
+      <c r="H40" s="178"/>
+      <c r="I40" s="178"/>
+      <c r="J40" s="178"/>
+      <c r="K40" s="178"/>
       <c r="L40" s="148"/>
       <c r="M40" s="132">
         <f>M36+M39</f>
@@ -6583,6 +6583,14 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="D39:K39"/>
+    <mergeCell ref="D40:K40"/>
+    <mergeCell ref="D33:K33"/>
+    <mergeCell ref="D34:K34"/>
+    <mergeCell ref="D35:K35"/>
+    <mergeCell ref="D36:K36"/>
+    <mergeCell ref="D37:K37"/>
+    <mergeCell ref="D38:K38"/>
     <mergeCell ref="D32:M32"/>
     <mergeCell ref="AR32:AT32"/>
     <mergeCell ref="A1:AT1"/>
@@ -6598,14 +6606,6 @@
     <mergeCell ref="AC5:AT5"/>
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D39:K39"/>
-    <mergeCell ref="D40:K40"/>
-    <mergeCell ref="D33:K33"/>
-    <mergeCell ref="D34:K34"/>
-    <mergeCell ref="D35:K35"/>
-    <mergeCell ref="D36:K36"/>
-    <mergeCell ref="D37:K37"/>
-    <mergeCell ref="D38:K38"/>
   </mergeCells>
   <conditionalFormatting sqref="AP7:AP28">
     <cfRule type="cellIs" dxfId="33" priority="17" stopIfTrue="1" operator="greaterThan">
@@ -6686,8 +6686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q168"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="T15" sqref="T15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6795,7 +6795,7 @@
     </row>
     <row r="6" spans="1:17" s="14" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A6" s="188" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B6" s="189"/>
       <c r="C6" s="190"/>
@@ -6870,18 +6870,10 @@
       </c>
       <c r="D8" s="138"/>
       <c r="E8" s="7"/>
-      <c r="F8" s="7">
-        <v>100</v>
-      </c>
-      <c r="G8" s="7">
-        <v>40</v>
-      </c>
-      <c r="H8" s="7">
-        <v>200</v>
-      </c>
-      <c r="I8" s="7">
-        <v>50</v>
-      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
       <c r="J8" s="77"/>
       <c r="K8" s="77"/>
       <c r="L8" s="74"/>
@@ -6900,16 +6892,10 @@
       </c>
       <c r="D9" s="140"/>
       <c r="E9" s="134"/>
-      <c r="F9" s="134">
-        <v>100</v>
-      </c>
+      <c r="F9" s="134"/>
       <c r="G9" s="134"/>
-      <c r="H9" s="141">
-        <v>250</v>
-      </c>
-      <c r="I9" s="134">
-        <v>40</v>
-      </c>
+      <c r="H9" s="141"/>
+      <c r="I9" s="134"/>
       <c r="J9" s="77"/>
       <c r="K9" s="82"/>
       <c r="L9" s="66"/>
@@ -6929,18 +6915,10 @@
       </c>
       <c r="D10" s="140"/>
       <c r="E10" s="134"/>
-      <c r="F10" s="134">
-        <v>100</v>
-      </c>
-      <c r="G10" s="134">
-        <v>40</v>
-      </c>
-      <c r="H10" s="134">
-        <v>100</v>
-      </c>
-      <c r="I10" s="134">
-        <v>40</v>
-      </c>
+      <c r="F10" s="134"/>
+      <c r="G10" s="134"/>
+      <c r="H10" s="134"/>
+      <c r="I10" s="134"/>
       <c r="J10" s="77"/>
       <c r="K10" s="77"/>
       <c r="L10" s="66"/>
@@ -6981,13 +6959,9 @@
       </c>
       <c r="D12" s="140"/>
       <c r="E12" s="134"/>
-      <c r="F12" s="134">
-        <v>100</v>
-      </c>
+      <c r="F12" s="134"/>
       <c r="G12" s="134"/>
-      <c r="H12" s="141">
-        <v>100</v>
-      </c>
+      <c r="H12" s="141"/>
       <c r="I12" s="134"/>
       <c r="J12" s="77"/>
       <c r="K12" s="77"/>
@@ -7007,16 +6981,10 @@
       </c>
       <c r="D13" s="140"/>
       <c r="E13" s="134"/>
-      <c r="F13" s="134">
-        <v>100</v>
-      </c>
+      <c r="F13" s="134"/>
       <c r="G13" s="134"/>
-      <c r="H13" s="141">
-        <v>100</v>
-      </c>
-      <c r="I13" s="134">
-        <v>50</v>
-      </c>
+      <c r="H13" s="141"/>
+      <c r="I13" s="134"/>
       <c r="J13" s="77"/>
       <c r="K13" s="77"/>
       <c r="L13" s="66"/>
@@ -7035,16 +7003,10 @@
       </c>
       <c r="D14" s="140"/>
       <c r="E14" s="134"/>
-      <c r="F14" s="134">
-        <v>100</v>
-      </c>
+      <c r="F14" s="134"/>
       <c r="G14" s="134"/>
-      <c r="H14" s="134">
-        <v>100</v>
-      </c>
-      <c r="I14" s="134">
-        <v>50</v>
-      </c>
+      <c r="H14" s="134"/>
+      <c r="I14" s="134"/>
       <c r="J14" s="77"/>
       <c r="K14" s="77"/>
       <c r="L14" s="66"/>
@@ -7065,9 +7027,7 @@
       <c r="E15" s="134"/>
       <c r="F15" s="134"/>
       <c r="G15" s="134"/>
-      <c r="H15" s="141">
-        <v>250</v>
-      </c>
+      <c r="H15" s="141"/>
       <c r="I15" s="134"/>
       <c r="J15" s="77"/>
       <c r="K15" s="77"/>
@@ -7131,13 +7091,9 @@
       </c>
       <c r="D18" s="140"/>
       <c r="E18" s="134"/>
-      <c r="F18" s="134">
-        <v>50</v>
-      </c>
+      <c r="F18" s="134"/>
       <c r="G18" s="134"/>
-      <c r="H18" s="141">
-        <v>100</v>
-      </c>
+      <c r="H18" s="141"/>
       <c r="I18" s="134"/>
       <c r="J18" s="77"/>
       <c r="K18" s="77"/>
@@ -7345,19 +7301,19 @@
       </c>
       <c r="F29" s="68">
         <f t="shared" si="0"/>
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="G29" s="68">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="H29" s="68">
         <f>SUM(H8:H28)</f>
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="I29" s="68">
         <f t="shared" si="0"/>
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="J29" s="68">
         <f t="shared" si="0"/>
@@ -8090,162 +8046,162 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:56" ht="30.75">
-      <c r="A1" s="172" t="s">
+      <c r="A1" s="164" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="172"/>
-      <c r="C1" s="172"/>
-      <c r="D1" s="172"/>
-      <c r="E1" s="172"/>
-      <c r="F1" s="172"/>
-      <c r="G1" s="172"/>
-      <c r="H1" s="172"/>
-      <c r="I1" s="172"/>
-      <c r="J1" s="172"/>
-      <c r="K1" s="172"/>
-      <c r="L1" s="172"/>
-      <c r="M1" s="172"/>
-      <c r="N1" s="172"/>
-      <c r="O1" s="172"/>
-      <c r="P1" s="172"/>
-      <c r="Q1" s="172"/>
-      <c r="R1" s="172"/>
-      <c r="S1" s="172"/>
-      <c r="T1" s="172"/>
-      <c r="U1" s="172"/>
-      <c r="V1" s="172"/>
-      <c r="W1" s="172"/>
-      <c r="X1" s="172"/>
-      <c r="Y1" s="172"/>
-      <c r="Z1" s="172"/>
-      <c r="AA1" s="172"/>
-      <c r="AB1" s="172"/>
-      <c r="AC1" s="172"/>
-      <c r="AD1" s="172"/>
-      <c r="AE1" s="172"/>
-      <c r="AF1" s="172"/>
-      <c r="AG1" s="172"/>
-      <c r="AH1" s="172"/>
-      <c r="AI1" s="172"/>
-      <c r="AJ1" s="172"/>
-      <c r="AK1" s="172"/>
-      <c r="AL1" s="172"/>
-      <c r="AM1" s="172"/>
-      <c r="AN1" s="172"/>
-      <c r="AO1" s="172"/>
-      <c r="AP1" s="172"/>
-      <c r="AQ1" s="172"/>
-      <c r="AR1" s="172"/>
-      <c r="AS1" s="172"/>
-      <c r="AT1" s="172"/>
+      <c r="B1" s="164"/>
+      <c r="C1" s="164"/>
+      <c r="D1" s="164"/>
+      <c r="E1" s="164"/>
+      <c r="F1" s="164"/>
+      <c r="G1" s="164"/>
+      <c r="H1" s="164"/>
+      <c r="I1" s="164"/>
+      <c r="J1" s="164"/>
+      <c r="K1" s="164"/>
+      <c r="L1" s="164"/>
+      <c r="M1" s="164"/>
+      <c r="N1" s="164"/>
+      <c r="O1" s="164"/>
+      <c r="P1" s="164"/>
+      <c r="Q1" s="164"/>
+      <c r="R1" s="164"/>
+      <c r="S1" s="164"/>
+      <c r="T1" s="164"/>
+      <c r="U1" s="164"/>
+      <c r="V1" s="164"/>
+      <c r="W1" s="164"/>
+      <c r="X1" s="164"/>
+      <c r="Y1" s="164"/>
+      <c r="Z1" s="164"/>
+      <c r="AA1" s="164"/>
+      <c r="AB1" s="164"/>
+      <c r="AC1" s="164"/>
+      <c r="AD1" s="164"/>
+      <c r="AE1" s="164"/>
+      <c r="AF1" s="164"/>
+      <c r="AG1" s="164"/>
+      <c r="AH1" s="164"/>
+      <c r="AI1" s="164"/>
+      <c r="AJ1" s="164"/>
+      <c r="AK1" s="164"/>
+      <c r="AL1" s="164"/>
+      <c r="AM1" s="164"/>
+      <c r="AN1" s="164"/>
+      <c r="AO1" s="164"/>
+      <c r="AP1" s="164"/>
+      <c r="AQ1" s="164"/>
+      <c r="AR1" s="164"/>
+      <c r="AS1" s="164"/>
+      <c r="AT1" s="164"/>
     </row>
     <row r="2" spans="1:56" ht="21" thickBot="1">
-      <c r="A2" s="173" t="s">
+      <c r="A2" s="165" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="173"/>
-      <c r="C2" s="173"/>
-      <c r="D2" s="173"/>
-      <c r="E2" s="173"/>
-      <c r="F2" s="173"/>
-      <c r="G2" s="173"/>
-      <c r="H2" s="173"/>
-      <c r="I2" s="173"/>
-      <c r="J2" s="173"/>
-      <c r="K2" s="173"/>
-      <c r="L2" s="173"/>
-      <c r="M2" s="173"/>
-      <c r="N2" s="173"/>
-      <c r="O2" s="173"/>
-      <c r="P2" s="173"/>
-      <c r="Q2" s="173"/>
-      <c r="R2" s="173"/>
-      <c r="S2" s="173"/>
-      <c r="T2" s="173"/>
-      <c r="U2" s="173"/>
-      <c r="V2" s="173"/>
-      <c r="W2" s="173"/>
-      <c r="X2" s="173"/>
-      <c r="Y2" s="173"/>
-      <c r="Z2" s="173"/>
-      <c r="AA2" s="173"/>
-      <c r="AB2" s="173"/>
-      <c r="AC2" s="173"/>
-      <c r="AD2" s="173"/>
-      <c r="AE2" s="173"/>
-      <c r="AF2" s="173"/>
-      <c r="AG2" s="173"/>
-      <c r="AH2" s="173"/>
-      <c r="AI2" s="173"/>
-      <c r="AJ2" s="173"/>
-      <c r="AK2" s="173"/>
-      <c r="AL2" s="173"/>
-      <c r="AM2" s="173"/>
-      <c r="AN2" s="173"/>
-      <c r="AO2" s="173"/>
-      <c r="AP2" s="173"/>
-      <c r="AQ2" s="173"/>
-      <c r="AR2" s="173"/>
-      <c r="AS2" s="173"/>
-      <c r="AT2" s="173"/>
+      <c r="B2" s="165"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="165"/>
+      <c r="H2" s="165"/>
+      <c r="I2" s="165"/>
+      <c r="J2" s="165"/>
+      <c r="K2" s="165"/>
+      <c r="L2" s="165"/>
+      <c r="M2" s="165"/>
+      <c r="N2" s="165"/>
+      <c r="O2" s="165"/>
+      <c r="P2" s="165"/>
+      <c r="Q2" s="165"/>
+      <c r="R2" s="165"/>
+      <c r="S2" s="165"/>
+      <c r="T2" s="165"/>
+      <c r="U2" s="165"/>
+      <c r="V2" s="165"/>
+      <c r="W2" s="165"/>
+      <c r="X2" s="165"/>
+      <c r="Y2" s="165"/>
+      <c r="Z2" s="165"/>
+      <c r="AA2" s="165"/>
+      <c r="AB2" s="165"/>
+      <c r="AC2" s="165"/>
+      <c r="AD2" s="165"/>
+      <c r="AE2" s="165"/>
+      <c r="AF2" s="165"/>
+      <c r="AG2" s="165"/>
+      <c r="AH2" s="165"/>
+      <c r="AI2" s="165"/>
+      <c r="AJ2" s="165"/>
+      <c r="AK2" s="165"/>
+      <c r="AL2" s="165"/>
+      <c r="AM2" s="165"/>
+      <c r="AN2" s="165"/>
+      <c r="AO2" s="165"/>
+      <c r="AP2" s="165"/>
+      <c r="AQ2" s="165"/>
+      <c r="AR2" s="165"/>
+      <c r="AS2" s="165"/>
+      <c r="AT2" s="165"/>
     </row>
     <row r="3" spans="1:56" ht="18.75">
-      <c r="A3" s="174" t="s">
-        <v>92</v>
-      </c>
-      <c r="B3" s="175"/>
-      <c r="C3" s="176"/>
-      <c r="D3" s="176"/>
-      <c r="E3" s="176"/>
-      <c r="F3" s="176"/>
-      <c r="G3" s="176"/>
-      <c r="H3" s="176"/>
-      <c r="I3" s="176"/>
-      <c r="J3" s="176"/>
-      <c r="K3" s="176"/>
-      <c r="L3" s="176"/>
-      <c r="M3" s="176"/>
-      <c r="N3" s="176"/>
-      <c r="O3" s="176"/>
-      <c r="P3" s="176"/>
-      <c r="Q3" s="176"/>
-      <c r="R3" s="176"/>
-      <c r="S3" s="176"/>
-      <c r="T3" s="176"/>
-      <c r="U3" s="176"/>
-      <c r="V3" s="176"/>
-      <c r="W3" s="176"/>
-      <c r="X3" s="176"/>
-      <c r="Y3" s="176"/>
-      <c r="Z3" s="176"/>
-      <c r="AA3" s="176"/>
-      <c r="AB3" s="176"/>
-      <c r="AC3" s="176"/>
-      <c r="AD3" s="176"/>
-      <c r="AE3" s="176"/>
-      <c r="AF3" s="176"/>
-      <c r="AG3" s="176"/>
-      <c r="AH3" s="176"/>
-      <c r="AI3" s="176"/>
-      <c r="AJ3" s="176"/>
-      <c r="AK3" s="176"/>
-      <c r="AL3" s="176"/>
-      <c r="AM3" s="176"/>
-      <c r="AN3" s="176"/>
-      <c r="AO3" s="176"/>
-      <c r="AP3" s="176"/>
-      <c r="AQ3" s="176"/>
-      <c r="AR3" s="176"/>
-      <c r="AS3" s="176"/>
-      <c r="AT3" s="176"/>
+      <c r="A3" s="166" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="167"/>
+      <c r="C3" s="168"/>
+      <c r="D3" s="168"/>
+      <c r="E3" s="168"/>
+      <c r="F3" s="168"/>
+      <c r="G3" s="168"/>
+      <c r="H3" s="168"/>
+      <c r="I3" s="168"/>
+      <c r="J3" s="168"/>
+      <c r="K3" s="168"/>
+      <c r="L3" s="168"/>
+      <c r="M3" s="168"/>
+      <c r="N3" s="168"/>
+      <c r="O3" s="168"/>
+      <c r="P3" s="168"/>
+      <c r="Q3" s="168"/>
+      <c r="R3" s="168"/>
+      <c r="S3" s="168"/>
+      <c r="T3" s="168"/>
+      <c r="U3" s="168"/>
+      <c r="V3" s="168"/>
+      <c r="W3" s="168"/>
+      <c r="X3" s="168"/>
+      <c r="Y3" s="168"/>
+      <c r="Z3" s="168"/>
+      <c r="AA3" s="168"/>
+      <c r="AB3" s="168"/>
+      <c r="AC3" s="168"/>
+      <c r="AD3" s="168"/>
+      <c r="AE3" s="168"/>
+      <c r="AF3" s="168"/>
+      <c r="AG3" s="168"/>
+      <c r="AH3" s="168"/>
+      <c r="AI3" s="168"/>
+      <c r="AJ3" s="168"/>
+      <c r="AK3" s="168"/>
+      <c r="AL3" s="168"/>
+      <c r="AM3" s="168"/>
+      <c r="AN3" s="168"/>
+      <c r="AO3" s="168"/>
+      <c r="AP3" s="168"/>
+      <c r="AQ3" s="168"/>
+      <c r="AR3" s="168"/>
+      <c r="AS3" s="168"/>
+      <c r="AT3" s="168"/>
     </row>
     <row r="4" spans="1:56" ht="15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="169" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="178"/>
-      <c r="D4" s="178"/>
+      <c r="B4" s="169"/>
+      <c r="C4" s="170"/>
+      <c r="D4" s="170"/>
       <c r="E4" s="89">
         <v>0</v>
       </c>
@@ -8270,10 +8226,10 @@
       <c r="L4" s="159">
         <v>300</v>
       </c>
-      <c r="M4" s="177">
+      <c r="M4" s="169">
         <v>90</v>
       </c>
-      <c r="N4" s="177"/>
+      <c r="N4" s="169"/>
       <c r="O4" s="159">
         <v>1610</v>
       </c>
@@ -8296,24 +8252,24 @@
       <c r="Z4" s="89"/>
       <c r="AA4" s="89"/>
       <c r="AB4" s="89"/>
-      <c r="AC4" s="178"/>
-      <c r="AD4" s="178"/>
-      <c r="AE4" s="178"/>
-      <c r="AF4" s="178"/>
-      <c r="AG4" s="178"/>
-      <c r="AH4" s="178"/>
-      <c r="AI4" s="178"/>
-      <c r="AJ4" s="178"/>
-      <c r="AK4" s="178"/>
-      <c r="AL4" s="178"/>
-      <c r="AM4" s="178"/>
-      <c r="AN4" s="178"/>
-      <c r="AO4" s="178"/>
-      <c r="AP4" s="178"/>
-      <c r="AQ4" s="178"/>
-      <c r="AR4" s="178"/>
-      <c r="AS4" s="178"/>
-      <c r="AT4" s="178"/>
+      <c r="AC4" s="170"/>
+      <c r="AD4" s="170"/>
+      <c r="AE4" s="170"/>
+      <c r="AF4" s="170"/>
+      <c r="AG4" s="170"/>
+      <c r="AH4" s="170"/>
+      <c r="AI4" s="170"/>
+      <c r="AJ4" s="170"/>
+      <c r="AK4" s="170"/>
+      <c r="AL4" s="170"/>
+      <c r="AM4" s="170"/>
+      <c r="AN4" s="170"/>
+      <c r="AO4" s="170"/>
+      <c r="AP4" s="170"/>
+      <c r="AQ4" s="170"/>
+      <c r="AR4" s="170"/>
+      <c r="AS4" s="170"/>
+      <c r="AT4" s="170"/>
       <c r="AV4" s="6"/>
       <c r="AW4" s="6"/>
       <c r="AX4" s="6"/>
@@ -8325,12 +8281,12 @@
       <c r="BD4" s="6"/>
     </row>
     <row r="5" spans="1:56" ht="15">
-      <c r="A5" s="177" t="s">
+      <c r="A5" s="169" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="177"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
+      <c r="B5" s="169"/>
+      <c r="C5" s="170"/>
+      <c r="D5" s="170"/>
       <c r="E5" s="89"/>
       <c r="F5" s="89"/>
       <c r="G5" s="89"/>
@@ -8363,24 +8319,24 @@
       <c r="Z5" s="89"/>
       <c r="AA5" s="89"/>
       <c r="AB5" s="89"/>
-      <c r="AC5" s="178"/>
-      <c r="AD5" s="178"/>
-      <c r="AE5" s="178"/>
-      <c r="AF5" s="178"/>
-      <c r="AG5" s="178"/>
-      <c r="AH5" s="178"/>
-      <c r="AI5" s="178"/>
-      <c r="AJ5" s="178"/>
-      <c r="AK5" s="178"/>
-      <c r="AL5" s="178"/>
-      <c r="AM5" s="178"/>
-      <c r="AN5" s="178"/>
-      <c r="AO5" s="178"/>
-      <c r="AP5" s="178"/>
-      <c r="AQ5" s="178"/>
-      <c r="AR5" s="178"/>
-      <c r="AS5" s="178"/>
-      <c r="AT5" s="178"/>
+      <c r="AC5" s="170"/>
+      <c r="AD5" s="170"/>
+      <c r="AE5" s="170"/>
+      <c r="AF5" s="170"/>
+      <c r="AG5" s="170"/>
+      <c r="AH5" s="170"/>
+      <c r="AI5" s="170"/>
+      <c r="AJ5" s="170"/>
+      <c r="AK5" s="170"/>
+      <c r="AL5" s="170"/>
+      <c r="AM5" s="170"/>
+      <c r="AN5" s="170"/>
+      <c r="AO5" s="170"/>
+      <c r="AP5" s="170"/>
+      <c r="AQ5" s="170"/>
+      <c r="AR5" s="170"/>
+      <c r="AS5" s="170"/>
+      <c r="AT5" s="170"/>
       <c r="AV5" s="6"/>
       <c r="AW5" s="6"/>
       <c r="AX5" s="6"/>
@@ -10650,11 +10606,11 @@
       <c r="BD28" s="6"/>
     </row>
     <row r="29" spans="1:56" s="1" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A29" s="179" t="s">
+      <c r="A29" s="171" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="180"/>
-      <c r="C29" s="180"/>
+      <c r="B29" s="172"/>
+      <c r="C29" s="172"/>
       <c r="D29" s="111">
         <f t="shared" ref="D29:AT29" si="13">SUM(D7:D28)</f>
         <v>0</v>
@@ -10839,10 +10795,10 @@
       <c r="BD29" s="122"/>
     </row>
     <row r="30" spans="1:56" ht="15.75" thickBot="1">
-      <c r="A30" s="181" t="s">
+      <c r="A30" s="173" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="182"/>
+      <c r="B30" s="174"/>
       <c r="C30" s="32"/>
       <c r="D30" s="33"/>
       <c r="E30" s="34">
@@ -11000,44 +10956,44 @@
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="5"/>
-      <c r="D32" s="170" t="s">
+      <c r="D32" s="162" t="s">
         <v>87</v>
       </c>
-      <c r="E32" s="170"/>
-      <c r="F32" s="170"/>
-      <c r="G32" s="170"/>
-      <c r="H32" s="170"/>
-      <c r="I32" s="170"/>
-      <c r="J32" s="170"/>
-      <c r="K32" s="170"/>
-      <c r="L32" s="170"/>
-      <c r="M32" s="170"/>
+      <c r="E32" s="162"/>
+      <c r="F32" s="162"/>
+      <c r="G32" s="162"/>
+      <c r="H32" s="162"/>
+      <c r="I32" s="162"/>
+      <c r="J32" s="162"/>
+      <c r="K32" s="162"/>
+      <c r="L32" s="162"/>
+      <c r="M32" s="162"/>
       <c r="O32" s="23"/>
       <c r="P32" s="11"/>
       <c r="Q32" s="6"/>
       <c r="R32" s="6"/>
       <c r="S32" s="6"/>
-      <c r="AR32" s="171" t="s">
+      <c r="AR32" s="163" t="s">
         <v>80</v>
       </c>
-      <c r="AS32" s="171"/>
-      <c r="AT32" s="171"/>
+      <c r="AS32" s="163"/>
+      <c r="AT32" s="163"/>
       <c r="AU32" s="14"/>
     </row>
     <row r="33" spans="1:47" ht="15.75">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="5"/>
-      <c r="D33" s="166" t="s">
+      <c r="D33" s="179" t="s">
         <v>81</v>
       </c>
-      <c r="E33" s="166"/>
-      <c r="F33" s="166"/>
-      <c r="G33" s="166"/>
-      <c r="H33" s="166"/>
-      <c r="I33" s="166"/>
-      <c r="J33" s="166"/>
-      <c r="K33" s="166"/>
+      <c r="E33" s="179"/>
+      <c r="F33" s="179"/>
+      <c r="G33" s="179"/>
+      <c r="H33" s="179"/>
+      <c r="I33" s="179"/>
+      <c r="J33" s="179"/>
+      <c r="K33" s="179"/>
       <c r="L33" s="157"/>
       <c r="M33" s="157">
         <v>191892</v>
@@ -11058,16 +11014,16 @@
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="5"/>
-      <c r="D34" s="167" t="s">
+      <c r="D34" s="180" t="s">
         <v>72</v>
       </c>
-      <c r="E34" s="167"/>
-      <c r="F34" s="167"/>
-      <c r="G34" s="167"/>
-      <c r="H34" s="167"/>
-      <c r="I34" s="167"/>
-      <c r="J34" s="167"/>
-      <c r="K34" s="167"/>
+      <c r="E34" s="180"/>
+      <c r="F34" s="180"/>
+      <c r="G34" s="180"/>
+      <c r="H34" s="180"/>
+      <c r="I34" s="180"/>
+      <c r="J34" s="180"/>
+      <c r="K34" s="180"/>
       <c r="L34" s="45"/>
       <c r="M34" s="129">
         <v>237487</v>
@@ -11092,14 +11048,14 @@
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="5"/>
-      <c r="D35" s="168"/>
-      <c r="E35" s="168"/>
-      <c r="F35" s="168"/>
-      <c r="G35" s="168"/>
-      <c r="H35" s="168"/>
-      <c r="I35" s="168"/>
-      <c r="J35" s="168"/>
-      <c r="K35" s="168"/>
+      <c r="D35" s="181"/>
+      <c r="E35" s="181"/>
+      <c r="F35" s="181"/>
+      <c r="G35" s="181"/>
+      <c r="H35" s="181"/>
+      <c r="I35" s="181"/>
+      <c r="J35" s="181"/>
+      <c r="K35" s="181"/>
       <c r="L35" s="158"/>
       <c r="M35" s="130">
         <f>M33+M34</f>
@@ -11123,16 +11079,16 @@
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="5"/>
-      <c r="D36" s="169" t="s">
+      <c r="D36" s="182" t="s">
         <v>75</v>
       </c>
-      <c r="E36" s="169"/>
-      <c r="F36" s="169"/>
-      <c r="G36" s="169"/>
-      <c r="H36" s="169"/>
-      <c r="I36" s="169"/>
-      <c r="J36" s="169"/>
-      <c r="K36" s="169"/>
+      <c r="E36" s="182"/>
+      <c r="F36" s="182"/>
+      <c r="G36" s="182"/>
+      <c r="H36" s="182"/>
+      <c r="I36" s="182"/>
+      <c r="J36" s="182"/>
+      <c r="K36" s="182"/>
       <c r="L36" s="158"/>
       <c r="M36" s="129">
         <v>23872</v>
@@ -11155,16 +11111,16 @@
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="5"/>
-      <c r="D37" s="166" t="s">
+      <c r="D37" s="179" t="s">
         <v>82</v>
       </c>
-      <c r="E37" s="166"/>
-      <c r="F37" s="166"/>
-      <c r="G37" s="166"/>
-      <c r="H37" s="166"/>
-      <c r="I37" s="166"/>
-      <c r="J37" s="166"/>
-      <c r="K37" s="166"/>
+      <c r="E37" s="179"/>
+      <c r="F37" s="179"/>
+      <c r="G37" s="179"/>
+      <c r="H37" s="179"/>
+      <c r="I37" s="179"/>
+      <c r="J37" s="179"/>
+      <c r="K37" s="179"/>
       <c r="L37" s="133"/>
       <c r="M37" s="131">
         <f>M35-M36</f>
@@ -11183,16 +11139,16 @@
       <c r="A38" s="13"/>
       <c r="B38" s="13"/>
       <c r="C38" s="5"/>
-      <c r="D38" s="168" t="s">
+      <c r="D38" s="181" t="s">
         <v>84</v>
       </c>
-      <c r="E38" s="168"/>
-      <c r="F38" s="168"/>
-      <c r="G38" s="168"/>
-      <c r="H38" s="168"/>
-      <c r="I38" s="168"/>
-      <c r="J38" s="168"/>
-      <c r="K38" s="168"/>
+      <c r="E38" s="181"/>
+      <c r="F38" s="181"/>
+      <c r="G38" s="181"/>
+      <c r="H38" s="181"/>
+      <c r="I38" s="181"/>
+      <c r="J38" s="181"/>
+      <c r="K38" s="181"/>
       <c r="L38" s="158"/>
       <c r="M38" s="158">
         <v>400000</v>
@@ -11209,16 +11165,16 @@
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="5"/>
-      <c r="D39" s="162" t="s">
+      <c r="D39" s="175" t="s">
         <v>85</v>
       </c>
-      <c r="E39" s="163"/>
-      <c r="F39" s="163"/>
-      <c r="G39" s="163"/>
-      <c r="H39" s="163"/>
-      <c r="I39" s="163"/>
-      <c r="J39" s="163"/>
-      <c r="K39" s="164"/>
+      <c r="E39" s="176"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
+      <c r="H39" s="176"/>
+      <c r="I39" s="176"/>
+      <c r="J39" s="176"/>
+      <c r="K39" s="177"/>
       <c r="L39" s="46"/>
       <c r="M39" s="130">
         <f>M37-M38</f>
@@ -11239,16 +11195,16 @@
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="5"/>
-      <c r="D40" s="165" t="s">
+      <c r="D40" s="178" t="s">
         <v>83</v>
       </c>
-      <c r="E40" s="165"/>
-      <c r="F40" s="165"/>
-      <c r="G40" s="165"/>
-      <c r="H40" s="165"/>
-      <c r="I40" s="165"/>
-      <c r="J40" s="165"/>
-      <c r="K40" s="165"/>
+      <c r="E40" s="178"/>
+      <c r="F40" s="178"/>
+      <c r="G40" s="178"/>
+      <c r="H40" s="178"/>
+      <c r="I40" s="178"/>
+      <c r="J40" s="178"/>
+      <c r="K40" s="178"/>
       <c r="L40" s="156"/>
       <c r="M40" s="132">
         <f>M36+M39</f>
@@ -11992,6 +11948,14 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="D39:K39"/>
+    <mergeCell ref="D40:K40"/>
+    <mergeCell ref="D33:K33"/>
+    <mergeCell ref="D34:K34"/>
+    <mergeCell ref="D35:K35"/>
+    <mergeCell ref="D36:K36"/>
+    <mergeCell ref="D37:K37"/>
+    <mergeCell ref="D38:K38"/>
     <mergeCell ref="D32:M32"/>
     <mergeCell ref="AR32:AT32"/>
     <mergeCell ref="A1:AT1"/>
@@ -12007,14 +11971,6 @@
     <mergeCell ref="AC5:AT5"/>
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D39:K39"/>
-    <mergeCell ref="D40:K40"/>
-    <mergeCell ref="D33:K33"/>
-    <mergeCell ref="D34:K34"/>
-    <mergeCell ref="D35:K35"/>
-    <mergeCell ref="D36:K36"/>
-    <mergeCell ref="D37:K37"/>
-    <mergeCell ref="D38:K38"/>
   </mergeCells>
   <conditionalFormatting sqref="AP7:AP28">
     <cfRule type="cellIs" dxfId="16" priority="17" stopIfTrue="1" operator="greaterThan">
@@ -12103,20 +12059,20 @@
   <sheetData>
     <row r="4" spans="3:5">
       <c r="C4" s="193" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D4" s="194"/>
       <c r="E4" s="194"/>
     </row>
     <row r="5" spans="3:5">
       <c r="C5" s="161" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="161" t="s">
         <v>94</v>
       </c>
-      <c r="D5" s="161" t="s">
+      <c r="E5" s="161" t="s">
         <v>95</v>
-      </c>
-      <c r="E5" s="161" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="6" spans="3:5">
